--- a/Code/Results/Cases/Case_8_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04488666827641</v>
+        <v>24.03913708031795</v>
       </c>
       <c r="C2">
-        <v>14.03064875451782</v>
+        <v>14.48995634840793</v>
       </c>
       <c r="D2">
-        <v>5.235575900605892</v>
+        <v>5.456638388216161</v>
       </c>
       <c r="E2">
-        <v>7.525935442174029</v>
+        <v>7.681833463757984</v>
       </c>
       <c r="F2">
-        <v>22.4850813561359</v>
+        <v>21.46750534201484</v>
       </c>
       <c r="G2">
-        <v>2.104799898610444</v>
+        <v>4.310618111370466</v>
       </c>
       <c r="H2">
-        <v>2.474891111675804</v>
+        <v>2.217781180680776</v>
       </c>
       <c r="I2">
-        <v>3.218097085219978</v>
+        <v>2.944935939454132</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.16178437970888</v>
+        <v>14.29373123606495</v>
       </c>
       <c r="L2">
-        <v>5.895861890522412</v>
+        <v>11.87765390116604</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.234022257015411</v>
       </c>
       <c r="N2">
-        <v>8.114802671950164</v>
+        <v>5.920292675528213</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.295560561841755</v>
       </c>
       <c r="Q2">
-        <v>16.64184335052226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.73607073224351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.4830692844073</v>
+        <v>22.46710968964478</v>
       </c>
       <c r="C3">
-        <v>13.25692987053738</v>
+        <v>13.65172581477271</v>
       </c>
       <c r="D3">
-        <v>5.096524141074524</v>
+        <v>5.336201952581479</v>
       </c>
       <c r="E3">
-        <v>7.442138170114543</v>
+        <v>7.630506996877963</v>
       </c>
       <c r="F3">
-        <v>22.27220628661281</v>
+        <v>21.25059320822266</v>
       </c>
       <c r="G3">
-        <v>2.109053661115325</v>
+        <v>4.862033434932719</v>
       </c>
       <c r="H3">
-        <v>2.697637561522305</v>
+        <v>2.41145144422289</v>
       </c>
       <c r="I3">
-        <v>3.393932467267356</v>
+        <v>3.089459306639835</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.37147151593887</v>
+        <v>14.49140708570661</v>
       </c>
       <c r="L3">
-        <v>5.866064142958663</v>
+        <v>12.06608818489781</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.376869138392847</v>
       </c>
       <c r="N3">
-        <v>7.806165617708301</v>
+        <v>5.899428535521764</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.980339648448396</v>
       </c>
       <c r="Q3">
-        <v>16.60797723555961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.68427249377761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.46649547824694</v>
+        <v>21.44244383604833</v>
       </c>
       <c r="C4">
-        <v>12.76096322952987</v>
+        <v>13.11468337180298</v>
       </c>
       <c r="D4">
-        <v>5.009961950905247</v>
+        <v>5.262169204884121</v>
       </c>
       <c r="E4">
-        <v>7.389367801706823</v>
+        <v>7.59833032431851</v>
       </c>
       <c r="F4">
-        <v>22.15076259033284</v>
+        <v>21.12252553388198</v>
       </c>
       <c r="G4">
-        <v>2.111754048561562</v>
+        <v>5.212322947751657</v>
       </c>
       <c r="H4">
-        <v>2.839233531644167</v>
+        <v>2.534665686477215</v>
       </c>
       <c r="I4">
-        <v>3.506260644473195</v>
+        <v>3.182199476015481</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.50572763918842</v>
+        <v>14.6161979496512</v>
       </c>
       <c r="L4">
-        <v>5.846899063794369</v>
+        <v>12.18498208526575</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.482145792167382</v>
       </c>
       <c r="N4">
-        <v>7.611296672897409</v>
+        <v>5.885961110730184</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.781588632027931</v>
       </c>
       <c r="Q4">
-        <v>16.59545047495491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.6571717004859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03777600142633</v>
+        <v>21.00992161917588</v>
       </c>
       <c r="C5">
-        <v>12.56339673968692</v>
+        <v>12.89982628694157</v>
       </c>
       <c r="D5">
-        <v>4.97525620451266</v>
+        <v>5.232814715362311</v>
       </c>
       <c r="E5">
-        <v>7.36665574552743</v>
+        <v>7.58426423299757</v>
       </c>
       <c r="F5">
-        <v>22.09439260313833</v>
+        <v>21.06254102915467</v>
       </c>
       <c r="G5">
-        <v>2.112883015185973</v>
+        <v>5.358852505983267</v>
       </c>
       <c r="H5">
-        <v>2.898456563922111</v>
+        <v>2.586232685695729</v>
       </c>
       <c r="I5">
-        <v>3.555733136009656</v>
+        <v>3.224123722760128</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.55637508659981</v>
+        <v>14.66272809118563</v>
       </c>
       <c r="L5">
-        <v>5.838481008611064</v>
+        <v>12.22912862045954</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.526730509081744</v>
       </c>
       <c r="N5">
-        <v>7.532602921924463</v>
+        <v>5.879966214268665</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.701279272260591</v>
       </c>
       <c r="Q5">
-        <v>16.58557622141039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.64053322595827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96576039969022</v>
+        <v>20.93721953136712</v>
       </c>
       <c r="C6">
-        <v>12.54216689624685</v>
+        <v>12.87542166708821</v>
       </c>
       <c r="D6">
-        <v>4.970496419665588</v>
+        <v>5.228922410508828</v>
       </c>
       <c r="E6">
-        <v>7.361794942583448</v>
+        <v>7.580958076642151</v>
       </c>
       <c r="F6">
-        <v>22.07393660504208</v>
+        <v>21.04156145658858</v>
       </c>
       <c r="G6">
-        <v>2.113079036905875</v>
+        <v>5.384332699972413</v>
       </c>
       <c r="H6">
-        <v>2.908717291613567</v>
+        <v>2.595179602484931</v>
       </c>
       <c r="I6">
-        <v>3.567338476147023</v>
+        <v>3.235170551717767</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.55826019677306</v>
+        <v>14.66420271356697</v>
       </c>
       <c r="L6">
-        <v>5.83659917230019</v>
+        <v>12.23027773436307</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.531208531364053</v>
       </c>
       <c r="N6">
-        <v>7.52188954653478</v>
+        <v>5.878547655774621</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.690195342099459</v>
       </c>
       <c r="Q6">
-        <v>16.57576518611879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.62960493184617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.46088550743159</v>
+        <v>21.43678857911301</v>
       </c>
       <c r="C7">
-        <v>12.79017272179602</v>
+        <v>13.12255616293124</v>
       </c>
       <c r="D7">
-        <v>5.012248997402657</v>
+        <v>5.275257030097349</v>
       </c>
       <c r="E7">
-        <v>7.386170955754147</v>
+        <v>7.597082377402624</v>
       </c>
       <c r="F7">
-        <v>22.11943889083134</v>
+        <v>21.0410424352513</v>
       </c>
       <c r="G7">
-        <v>2.111788395132966</v>
+        <v>5.270322479664014</v>
       </c>
       <c r="H7">
-        <v>2.840967407039304</v>
+        <v>2.537733973999308</v>
       </c>
       <c r="I7">
-        <v>3.515723253539693</v>
+        <v>3.194756068531451</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.48835493138348</v>
+        <v>14.57895162784333</v>
       </c>
       <c r="L7">
-        <v>5.845523716386707</v>
+        <v>12.14900052076101</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.462530719179817</v>
       </c>
       <c r="N7">
-        <v>7.616780620593095</v>
+        <v>5.883769475595842</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.786067598062803</v>
       </c>
       <c r="Q7">
-        <v>16.57271359177581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.59441050469713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.5183917398826</v>
+        <v>23.50947477463775</v>
       </c>
       <c r="C8">
-        <v>13.80780950299638</v>
+        <v>14.18094651526303</v>
       </c>
       <c r="D8">
-        <v>5.191424937192212</v>
+        <v>5.453781238251178</v>
       </c>
       <c r="E8">
-        <v>7.493614527947725</v>
+        <v>7.666201583945684</v>
       </c>
       <c r="F8">
-        <v>22.36997563827756</v>
+        <v>21.1885323028104</v>
       </c>
       <c r="G8">
-        <v>2.106272160782193</v>
+        <v>4.796743460988641</v>
       </c>
       <c r="H8">
-        <v>2.551858044869749</v>
+        <v>2.289475603707656</v>
       </c>
       <c r="I8">
-        <v>3.289102735714348</v>
+        <v>3.011803660441216</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.20900947292571</v>
+        <v>14.2715591257709</v>
       </c>
       <c r="L8">
-        <v>5.88419210129693</v>
+        <v>11.8628616935707</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.222612467332729</v>
       </c>
       <c r="N8">
-        <v>8.017801598192067</v>
+        <v>5.908764584885573</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.193669219898322</v>
       </c>
       <c r="Q8">
-        <v>16.59877691523833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.5570640573143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09710932659885</v>
+        <v>27.10416436985276</v>
       </c>
       <c r="C9">
-        <v>15.58268138357406</v>
+        <v>16.09816981810712</v>
       </c>
       <c r="D9">
-        <v>5.527250871079034</v>
+        <v>5.756924883346548</v>
       </c>
       <c r="E9">
-        <v>7.698867312682698</v>
+        <v>7.795227038601145</v>
       </c>
       <c r="F9">
-        <v>22.98914011721192</v>
+        <v>21.75600486161814</v>
       </c>
       <c r="G9">
-        <v>2.096108506288683</v>
+        <v>3.626147439548437</v>
       </c>
       <c r="H9">
-        <v>2.020836599378393</v>
+        <v>1.829263006644297</v>
       </c>
       <c r="I9">
-        <v>2.864347060301654</v>
+        <v>2.662167618717772</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.73912316139754</v>
+        <v>13.80074119761739</v>
       </c>
       <c r="L9">
-        <v>5.955371178250233</v>
+        <v>11.42542672477783</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.955791853273773</v>
       </c>
       <c r="N9">
-        <v>8.747544562487491</v>
+        <v>5.958090734629279</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.940095108615569</v>
       </c>
       <c r="Q9">
-        <v>16.75845533445745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.70828507907456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.45033572343266</v>
+        <v>29.46660925194151</v>
       </c>
       <c r="C10">
-        <v>16.84217857692722</v>
+        <v>17.34602731221479</v>
       </c>
       <c r="D10">
-        <v>5.738429701068926</v>
+        <v>6.005784731044734</v>
       </c>
       <c r="E10">
-        <v>7.789493953442839</v>
+        <v>7.84617500527516</v>
       </c>
       <c r="F10">
-        <v>23.31728056230244</v>
+        <v>21.77137894470004</v>
       </c>
       <c r="G10">
-        <v>2.089153009316977</v>
+        <v>4.346134625168223</v>
       </c>
       <c r="H10">
-        <v>1.68375993903643</v>
+        <v>1.599633585042062</v>
       </c>
       <c r="I10">
-        <v>2.583278395729295</v>
+        <v>2.539701921869347</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.34404440677499</v>
+        <v>13.29583785058727</v>
       </c>
       <c r="L10">
-        <v>5.995787896547637</v>
+        <v>10.99976995032858</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.701315308893298</v>
       </c>
       <c r="N10">
-        <v>9.177762503546598</v>
+        <v>5.98179677831393</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.375719871861921</v>
       </c>
       <c r="Q10">
-        <v>16.80973318182771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.52705294454666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.45824890188368</v>
+        <v>30.46832397243606</v>
       </c>
       <c r="C11">
-        <v>17.84658975303925</v>
+        <v>18.08019486383537</v>
       </c>
       <c r="D11">
-        <v>5.591498401077184</v>
+        <v>5.96399053487001</v>
       </c>
       <c r="E11">
-        <v>7.451572520525075</v>
+        <v>7.521872083386555</v>
       </c>
       <c r="F11">
-        <v>22.06188876540825</v>
+        <v>20.0626914850532</v>
       </c>
       <c r="G11">
-        <v>2.086988812328408</v>
+        <v>8.057873964535617</v>
       </c>
       <c r="H11">
-        <v>2.701630131163339</v>
+        <v>2.637861612798817</v>
       </c>
       <c r="I11">
-        <v>2.517420059724881</v>
+        <v>2.610232735294281</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.5495407667296</v>
+        <v>12.4438671340586</v>
       </c>
       <c r="L11">
-        <v>6.000354290507688</v>
+        <v>10.42496681741459</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.017499016760356</v>
       </c>
       <c r="N11">
-        <v>8.71339899972765</v>
+        <v>5.997092497704908</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.881928158070334</v>
       </c>
       <c r="Q11">
-        <v>15.93683912877269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.29747157415861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.83002876705968</v>
+        <v>30.83973908924479</v>
       </c>
       <c r="C12">
-        <v>18.40590781826955</v>
+        <v>18.46785443993067</v>
       </c>
       <c r="D12">
-        <v>5.41856538506061</v>
+        <v>5.832661504623868</v>
       </c>
       <c r="E12">
-        <v>7.268566357068897</v>
+        <v>7.337046736325371</v>
       </c>
       <c r="F12">
-        <v>20.96580466489307</v>
+        <v>18.83295605444907</v>
       </c>
       <c r="G12">
-        <v>2.086495914628719</v>
+        <v>9.916590603990617</v>
       </c>
       <c r="H12">
-        <v>4.104723868743506</v>
+        <v>4.065759985258603</v>
       </c>
       <c r="I12">
-        <v>2.505280243125998</v>
+        <v>2.620501918811018</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.02668673190942</v>
+        <v>11.99398895689311</v>
       </c>
       <c r="L12">
-        <v>6.066475500502907</v>
+        <v>10.15674231248708</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.608137510031883</v>
       </c>
       <c r="N12">
-        <v>8.223355638986693</v>
+        <v>6.07596290550215</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.36860899038631</v>
       </c>
       <c r="Q12">
-        <v>15.21707741446029</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.47893940352297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.74800946594911</v>
+        <v>30.75794770519058</v>
       </c>
       <c r="C13">
-        <v>18.71093443137879</v>
+        <v>18.70235510735358</v>
       </c>
       <c r="D13">
-        <v>5.216697786681148</v>
+        <v>5.603418316512465</v>
       </c>
       <c r="E13">
-        <v>7.194812388468041</v>
+        <v>7.258745758883178</v>
       </c>
       <c r="F13">
-        <v>19.8755678522233</v>
+        <v>17.94297718000406</v>
       </c>
       <c r="G13">
-        <v>2.087291205777102</v>
+        <v>9.521248621493129</v>
       </c>
       <c r="H13">
-        <v>5.543218981582111</v>
+        <v>5.511130658288614</v>
       </c>
       <c r="I13">
-        <v>2.531624197795705</v>
+        <v>2.593725590296869</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.66309024962276</v>
+        <v>11.79625159998654</v>
       </c>
       <c r="L13">
-        <v>6.177078852072288</v>
+        <v>10.0496081230293</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.395455794750733</v>
       </c>
       <c r="N13">
-        <v>7.684543297079598</v>
+        <v>6.19918953300381</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.810618082828789</v>
       </c>
       <c r="Q13">
-        <v>14.53712593395435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.96281657062653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.48422935799689</v>
+        <v>30.49445020024371</v>
       </c>
       <c r="C14">
-        <v>18.82164568686722</v>
+        <v>18.80677868223658</v>
       </c>
       <c r="D14">
-        <v>5.06247547943976</v>
+        <v>5.402505032828057</v>
       </c>
       <c r="E14">
-        <v>7.210138235319944</v>
+        <v>7.275754105853446</v>
       </c>
       <c r="F14">
-        <v>19.11245135048917</v>
+        <v>17.45342388995729</v>
       </c>
       <c r="G14">
-        <v>2.088431535965423</v>
+        <v>8.260290459532559</v>
       </c>
       <c r="H14">
-        <v>6.560212512814252</v>
+        <v>6.529062338373941</v>
       </c>
       <c r="I14">
-        <v>2.58082508844747</v>
+        <v>2.559914455468252</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.49006781740744</v>
+        <v>11.7540486194782</v>
       </c>
       <c r="L14">
-        <v>6.280479305413084</v>
+        <v>10.02696334678154</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.330840880391423</v>
       </c>
       <c r="N14">
-        <v>7.285333045988016</v>
+        <v>6.309388484808169</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.399741326765501</v>
       </c>
       <c r="Q14">
-        <v>14.07901816884822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.72076536727477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.32199851438732</v>
+        <v>30.33230967637589</v>
       </c>
       <c r="C15">
-        <v>18.80434379173175</v>
+        <v>18.80675954771366</v>
       </c>
       <c r="D15">
-        <v>5.019611267521732</v>
+        <v>5.337222026475499</v>
       </c>
       <c r="E15">
-        <v>7.220443212060849</v>
+        <v>7.290379705072344</v>
       </c>
       <c r="F15">
-        <v>18.92084415326742</v>
+        <v>17.38350216893968</v>
       </c>
       <c r="G15">
-        <v>2.089004110325756</v>
+        <v>7.54133878937005</v>
       </c>
       <c r="H15">
-        <v>6.797239292336663</v>
+        <v>6.765122670818164</v>
       </c>
       <c r="I15">
-        <v>2.608915587480627</v>
+        <v>2.545840536279227</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.47404380047699</v>
+        <v>11.7762067178422</v>
       </c>
       <c r="L15">
-        <v>6.306090383627604</v>
+        <v>10.03736348735791</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.344059457416299</v>
       </c>
       <c r="N15">
-        <v>7.179077173532174</v>
+        <v>6.33656655691454</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.291298261366255</v>
       </c>
       <c r="Q15">
-        <v>13.97063434379699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.70672716635788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.3768748718475</v>
+        <v>29.38701348093477</v>
       </c>
       <c r="C16">
-        <v>18.26684788745815</v>
+        <v>18.42956091176663</v>
       </c>
       <c r="D16">
-        <v>4.966879331720634</v>
+        <v>5.195227572145471</v>
       </c>
       <c r="E16">
-        <v>7.189607839680147</v>
+        <v>7.293443272180379</v>
       </c>
       <c r="F16">
-        <v>18.97119445059952</v>
+        <v>17.88694128682268</v>
       </c>
       <c r="G16">
-        <v>2.09182813511427</v>
+        <v>4.373523681440745</v>
       </c>
       <c r="H16">
-        <v>6.602538528495063</v>
+        <v>6.558058119012386</v>
       </c>
       <c r="I16">
-        <v>2.728151469533699</v>
+        <v>2.570375801538374</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.71970086443752</v>
+        <v>12.08816248286827</v>
       </c>
       <c r="L16">
-        <v>6.260097485785433</v>
+        <v>10.20417888408559</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.611256166074313</v>
       </c>
       <c r="N16">
-        <v>7.087712837021373</v>
+        <v>6.294042077905661</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.206046039448695</v>
       </c>
       <c r="Q16">
-        <v>14.0721789578391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.15324374474397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78225266042146</v>
+        <v>28.79178171609173</v>
       </c>
       <c r="C17">
-        <v>17.78434654533358</v>
+        <v>18.04967936270958</v>
       </c>
       <c r="D17">
-        <v>5.009750186289925</v>
+        <v>5.205936702943004</v>
       </c>
       <c r="E17">
-        <v>7.14671668558498</v>
+        <v>7.267186621440596</v>
       </c>
       <c r="F17">
-        <v>19.41490460505417</v>
+        <v>18.48450551875466</v>
       </c>
       <c r="G17">
-        <v>2.093394773367421</v>
+        <v>3.393519055283889</v>
       </c>
       <c r="H17">
-        <v>5.88406581488684</v>
+        <v>5.826636615567072</v>
       </c>
       <c r="I17">
-        <v>2.794289522326028</v>
+        <v>2.620573180712467</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.99122048541271</v>
+        <v>12.35882626430013</v>
       </c>
       <c r="L17">
-        <v>6.165051340976241</v>
+        <v>10.36997846642885</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.838924698674504</v>
       </c>
       <c r="N17">
-        <v>7.234127902290901</v>
+        <v>6.199915507774953</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.362599090806741</v>
       </c>
       <c r="Q17">
-        <v>14.39091573215134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.58782262791412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43508591616998</v>
+        <v>28.44427695657255</v>
       </c>
       <c r="C18">
-        <v>17.27954863753724</v>
+        <v>17.64312756333113</v>
       </c>
       <c r="D18">
-        <v>5.139005227274672</v>
+        <v>5.325696175486341</v>
       </c>
       <c r="E18">
-        <v>7.153360526327937</v>
+        <v>7.274556862164124</v>
       </c>
       <c r="F18">
-        <v>20.27220266811455</v>
+        <v>19.35140218245887</v>
       </c>
       <c r="G18">
-        <v>2.093986096687314</v>
+        <v>3.134169024644454</v>
       </c>
       <c r="H18">
-        <v>4.661729014575793</v>
+        <v>4.585550178054546</v>
       </c>
       <c r="I18">
-        <v>2.809656797799833</v>
+        <v>2.627562922698328</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.35200534685532</v>
+        <v>12.675972478108</v>
       </c>
       <c r="L18">
-        <v>6.046599758309347</v>
+        <v>10.58488930167852</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.101963606906644</v>
       </c>
       <c r="N18">
-        <v>7.603822798670688</v>
+        <v>6.078460933420696</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.748701036682553</v>
       </c>
       <c r="Q18">
-        <v>14.95176363179181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.15520366839106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31729741067895</v>
+        <v>28.32663437793568</v>
       </c>
       <c r="C19">
-        <v>16.85569722670993</v>
+        <v>17.31753764463891</v>
       </c>
       <c r="D19">
-        <v>5.333344832555347</v>
+        <v>5.521347339333761</v>
       </c>
       <c r="E19">
-        <v>7.291465463005492</v>
+        <v>7.397624520223142</v>
       </c>
       <c r="F19">
-        <v>21.36053442987641</v>
+        <v>20.36895587754355</v>
       </c>
       <c r="G19">
-        <v>2.093709887971782</v>
+        <v>3.03231264724222</v>
       </c>
       <c r="H19">
-        <v>3.230268256692332</v>
+        <v>3.123000817962966</v>
       </c>
       <c r="I19">
-        <v>2.800465138918842</v>
+        <v>2.62110086208197</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.77444783096376</v>
+        <v>13.02497043590728</v>
       </c>
       <c r="L19">
-        <v>5.965752840709868</v>
+        <v>10.83251111638218</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.390935508745262</v>
       </c>
       <c r="N19">
-        <v>8.139895882828903</v>
+        <v>5.988353843539953</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.305548479089836</v>
       </c>
       <c r="Q19">
-        <v>15.63958021632358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.78918228053158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85077707964479</v>
+        <v>28.86502938882173</v>
       </c>
       <c r="C20">
-        <v>16.60161588012863</v>
+        <v>17.16517370495107</v>
       </c>
       <c r="D20">
-        <v>5.689856034072498</v>
+        <v>5.911280729501449</v>
       </c>
       <c r="E20">
-        <v>7.755686223086895</v>
+        <v>7.817741966126126</v>
       </c>
       <c r="F20">
-        <v>23.13191373665432</v>
+        <v>21.84003267266399</v>
       </c>
       <c r="G20">
-        <v>2.091007190438709</v>
+        <v>3.22609517664021</v>
       </c>
       <c r="H20">
-        <v>1.772207439422892</v>
+        <v>1.618245055040021</v>
       </c>
       <c r="I20">
-        <v>2.687635496571461</v>
+        <v>2.53310308309217</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.38643761427525</v>
+        <v>13.44422631665276</v>
       </c>
       <c r="L20">
-        <v>5.981888359345686</v>
+        <v>11.11979107415894</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.778641264070263</v>
       </c>
       <c r="N20">
-        <v>9.080399787156146</v>
+        <v>5.975685425618826</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.278394291332758</v>
       </c>
       <c r="Q20">
-        <v>16.72098713974018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.63929663886653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.57046950918511</v>
+        <v>30.5866948247166</v>
       </c>
       <c r="C21">
-        <v>17.43834663519792</v>
+        <v>17.71290532201727</v>
       </c>
       <c r="D21">
-        <v>5.891149307654637</v>
+        <v>6.334476987322739</v>
       </c>
       <c r="E21">
-        <v>7.90692010715328</v>
+        <v>7.970304080009422</v>
       </c>
       <c r="F21">
-        <v>23.66519446255513</v>
+        <v>21.23651513948404</v>
       </c>
       <c r="G21">
-        <v>2.085598590895618</v>
+        <v>9.665591598298843</v>
       </c>
       <c r="H21">
-        <v>1.64556741764135</v>
+        <v>1.733803728429897</v>
       </c>
       <c r="I21">
-        <v>2.550996350185599</v>
+        <v>2.659002369073198</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.2161258353958</v>
+        <v>12.80970996122715</v>
       </c>
       <c r="L21">
-        <v>6.024178503350798</v>
+        <v>10.65190397628759</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.370444974798126</v>
       </c>
       <c r="N21">
-        <v>9.515635770688059</v>
+        <v>5.987655332475376</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.710877747328508</v>
       </c>
       <c r="Q21">
-        <v>16.94768342908102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.95962926296006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.64508147904169</v>
+        <v>31.66094783863409</v>
       </c>
       <c r="C22">
-        <v>17.96001965490569</v>
+        <v>18.03020857408099</v>
       </c>
       <c r="D22">
-        <v>6.003168742759176</v>
+        <v>6.608621851038456</v>
       </c>
       <c r="E22">
-        <v>7.980966970543278</v>
+        <v>8.056037306930799</v>
       </c>
       <c r="F22">
-        <v>23.97665891725457</v>
+        <v>20.74943285712465</v>
       </c>
       <c r="G22">
-        <v>2.082166287058649</v>
+        <v>14.64319580504455</v>
       </c>
       <c r="H22">
-        <v>1.819481250124909</v>
+        <v>1.869128856417819</v>
       </c>
       <c r="I22">
-        <v>2.682767645383075</v>
+        <v>2.752468917345356</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.09918934571291</v>
+        <v>12.37522830439487</v>
       </c>
       <c r="L22">
-        <v>6.048635093054341</v>
+        <v>10.36214875985224</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.074306403644531</v>
       </c>
       <c r="N22">
-        <v>9.747107270294425</v>
+        <v>5.994462658821515</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.938549630695647</v>
       </c>
       <c r="Q22">
-        <v>17.08119451417328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.45364562177281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.0761150657172</v>
+        <v>31.09322106723405</v>
       </c>
       <c r="C23">
-        <v>17.65464470920368</v>
+        <v>17.87398340241316</v>
       </c>
       <c r="D23">
-        <v>5.940776391412171</v>
+        <v>6.432237331598135</v>
       </c>
       <c r="E23">
-        <v>7.94450913305495</v>
+        <v>8.0067120724045</v>
       </c>
       <c r="F23">
-        <v>23.84250159025593</v>
+        <v>21.15919623303292</v>
       </c>
       <c r="G23">
-        <v>2.083975548625574</v>
+        <v>11.16834605856161</v>
       </c>
       <c r="H23">
-        <v>1.727761365121754</v>
+        <v>1.799894083029683</v>
       </c>
       <c r="I23">
-        <v>2.607053555638785</v>
+        <v>2.697593573237845</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.18253934827099</v>
+        <v>12.66820696204064</v>
       </c>
       <c r="L23">
-        <v>6.036807294150451</v>
+        <v>10.55027838757654</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.291840715883188</v>
       </c>
       <c r="N23">
-        <v>9.617913014273061</v>
+        <v>5.993207415459761</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.813186072509872</v>
       </c>
       <c r="Q23">
-        <v>17.03427408797721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.84242276006808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82212988425673</v>
+        <v>28.83763289574541</v>
       </c>
       <c r="C24">
-        <v>16.50239611477302</v>
+        <v>17.07825215482394</v>
       </c>
       <c r="D24">
-        <v>5.704850600230831</v>
+        <v>5.925292283063043</v>
       </c>
       <c r="E24">
-        <v>7.799772942376896</v>
+        <v>7.858868832884647</v>
       </c>
       <c r="F24">
-        <v>23.30118384387669</v>
+        <v>22.00578138889375</v>
       </c>
       <c r="G24">
-        <v>2.090979233402256</v>
+        <v>3.181210204971122</v>
       </c>
       <c r="H24">
-        <v>1.753451220828198</v>
+        <v>1.598675583633185</v>
       </c>
       <c r="I24">
-        <v>2.667890698674438</v>
+        <v>2.508934659758942</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.47832709090715</v>
+        <v>13.52494703463963</v>
       </c>
       <c r="L24">
-        <v>5.988988624909989</v>
+        <v>11.17701290570002</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.844867673352272</v>
       </c>
       <c r="N24">
-        <v>9.125117900913672</v>
+        <v>5.980624634500716</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.325811855773043</v>
       </c>
       <c r="Q24">
-        <v>16.83686606472921</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.75237039095036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17757252077639</v>
+        <v>26.18167786448408</v>
       </c>
       <c r="C25">
-        <v>15.17060589910841</v>
+        <v>15.67335609162078</v>
       </c>
       <c r="D25">
-        <v>5.442351983167948</v>
+        <v>5.665262881424574</v>
       </c>
       <c r="E25">
-        <v>7.639600619302338</v>
+        <v>7.754202153650175</v>
       </c>
       <c r="F25">
-        <v>22.76066072205257</v>
+        <v>21.6152302363575</v>
       </c>
       <c r="G25">
-        <v>2.09881690075318</v>
+        <v>3.729784669896626</v>
       </c>
       <c r="H25">
-        <v>2.162042096871892</v>
+        <v>1.949641950290396</v>
       </c>
       <c r="I25">
-        <v>2.992240427127872</v>
+        <v>2.771884400556503</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.82835274937589</v>
+        <v>13.92386823685474</v>
       </c>
       <c r="L25">
-        <v>5.934823091033016</v>
+        <v>11.54037136405578</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.010559894565059</v>
       </c>
       <c r="N25">
-        <v>8.565998116218594</v>
+        <v>5.94486472595246</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.754534422504792</v>
       </c>
       <c r="Q25">
-        <v>16.66762872569889</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.67947270998698</v>
       </c>
     </row>
   </sheetData>
